--- a/src/main/resources/blood.xlsx
+++ b/src/main/resources/blood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600"/>
+    <workbookView windowWidth="25600" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - HW_first_blood" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>uid</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>杭州市</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
   </si>
 </sst>
 </file>
@@ -189,8 +195,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -217,16 +223,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,11 +252,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +267,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,33 +297,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +322,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,25 +343,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,14 +365,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -381,7 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +405,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,19 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,19 +507,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,73 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +699,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,7 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,6 +724,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,161 +783,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2131,10 +2137,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="6"/>
@@ -3299,6 +3305,52 @@
         <v>25</v>
       </c>
     </row>
+    <row r="51" ht="20.05" customHeight="1" spans="1:7">
+      <c r="A51" s="7">
+        <v>529999</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="10">
+        <v>148</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" ht="20.05" customHeight="1" spans="1:7">
+      <c r="A52" s="7">
+        <v>526888</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="10">
+        <v>148</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
